--- a/biology/Botanique/Parc_de_la_Promenade-Bellerive/Parc_de_la_Promenade-Bellerive.xlsx
+++ b/biology/Botanique/Parc_de_la_Promenade-Bellerive/Parc_de_la_Promenade-Bellerive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc de la Promenade Bellerive est un grand parc urbain situé en bordure sud de la rue Notre-Dame, dans l'arrondissement de Mercier–Hochelaga-Maisonneuve  à Montréal. C'est le seul accès physique et visuel au fleuve Saint-Laurent dans l’arrondissement[1]. Tout en longueur, ce parc de 22 hectares fait face aux Îles de Boucherville. En été, une navette le relie à l'île Charron. Le chalet du parc est accessible via la rue Lebrun. En été, le petit quai de la navette fluviale est un très bon lieu de pêche. Il est aussi possible de lancer sa ligne à partir du rivage sur une distance d’un demi-kilomètre[2]. L’absence de navette en soirée rend la pêche paisible et généreuse[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc de la Promenade Bellerive est un grand parc urbain situé en bordure sud de la rue Notre-Dame, dans l'arrondissement de Mercier–Hochelaga-Maisonneuve  à Montréal. C'est le seul accès physique et visuel au fleuve Saint-Laurent dans l’arrondissement. Tout en longueur, ce parc de 22 hectares fait face aux Îles de Boucherville. En été, une navette le relie à l'île Charron. Le chalet du parc est accessible via la rue Lebrun. En été, le petit quai de la navette fluviale est un très bon lieu de pêche. Il est aussi possible de lancer sa ligne à partir du rivage sur une distance d’un demi-kilomètre. L’absence de navette en soirée rend la pêche paisible et généreuse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1893, le Canadien Pacifique cède ce terrain à la Ville de Montréal, sous le nom de Bellerive Park, en échange de l'emplacement du futur hôtel Viger.
-Au début des années 1960, Paul Émile Sauvageau, conseiller municipal de Mercier, à la ville  de Montréal, lance l’idée de créer un grand parc de verdure dans l'est de Montréal. Son projet est de relier les parcs existants Letailler et Taillon avec une promenade longeant le fleuve Saint-Laurent. En 1964, le parc est créé officiellement[3].
+Au début des années 1960, Paul Émile Sauvageau, conseiller municipal de Mercier, à la ville  de Montréal, lance l’idée de créer un grand parc de verdure dans l'est de Montréal. Son projet est de relier les parcs existants Letailler et Taillon avec une promenade longeant le fleuve Saint-Laurent. En 1964, le parc est créé officiellement.
 </t>
         </is>
       </c>
